--- a/DMSNewVSale_2025-11-08_17-21.xlsx
+++ b/DMSNewVSale_2025-11-08_17-21.xlsx
@@ -59,10 +59,19 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>86.00</t>
@@ -1184,7 +1193,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1194,14 +1203,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1217,7 +1226,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1227,14 +1236,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1250,7 +1259,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1260,14 +1269,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1276,14 +1285,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1293,14 +1302,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1309,14 +1318,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1333,7 +1342,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1366,7 +1375,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1382,7 +1391,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1392,14 +1401,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1408,14 +1417,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1425,14 +1434,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1448,7 +1457,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1458,14 +1467,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1474,14 +1483,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1498,7 +1507,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1514,7 +1523,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1531,7 +1540,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1540,14 +1549,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1557,14 +1566,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1573,14 +1582,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1597,7 +1606,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1613,7 +1622,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1630,7 +1639,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1646,7 +1655,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1663,7 +1672,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1672,14 +1681,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1689,14 +1698,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>75</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1712,7 +1721,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1729,7 +1738,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1745,24 +1754,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1771,7 +1780,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1784,7 +1793,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1795,7 +1804,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1825,10 +1834,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1844,7 +1853,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1854,14 +1863,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1870,14 +1879,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1894,7 +1903,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1910,7 +1919,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1920,14 +1929,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1936,20 +1945,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1960,7 +1969,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1976,13 +1985,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1993,7 +2002,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2009,7 +2018,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2026,7 +2035,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2042,7 +2051,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2059,7 +2068,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2075,7 +2084,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2085,14 +2094,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2101,20 +2110,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2125,7 +2134,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2141,13 +2150,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2158,7 +2167,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2174,24 +2183,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2200,31 +2209,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2240,13 +2249,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2257,7 +2266,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2266,31 +2275,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2299,31 +2308,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2332,31 +2341,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>139</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2365,31 +2374,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2398,28 +2407,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>17</v>
@@ -2431,28 +2440,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>17</v>
@@ -2464,68 +2473,101 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="49" ht="26.25" customHeight="1">
-      <c r="N49" s="13">
-        <v>2382.7600000000002</v>
-      </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>152</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>153</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>154</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>83</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>140</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" ht="25.5" customHeight="1">
+      <c r="N50" s="13">
+        <v>2437.7600000000002</v>
+      </c>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>155</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>156</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>157</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2744,10 +2786,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
